--- a/opdracht03/documentatie/Offerte groep 40.xlsx
+++ b/opdracht03/documentatie/Offerte groep 40.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\2\Vakken\Projecten 2\p2ops-g10\opdracht03\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916C7116-70C8-44AF-8DF7-63F0B99D7A3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5649EBB6-4F48-4234-BEBD-8AEF655D202C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4287" yWindow="2093" windowWidth="19200" windowHeight="10074" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meerdere pagina's" sheetId="4" r:id="rId1"/>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="11.35" x14ac:dyDescent="0.35"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B51" s="82"/>
       <c r="C51" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" s="6">
         <v>214</v>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="F51" s="8">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2037,7 +2037,7 @@
       <c r="E65" s="78"/>
       <c r="F65" s="46">
         <f>SUM(F9:F63)</f>
-        <v>15875.8</v>
+        <v>15447.8</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -2047,7 +2047,7 @@
       <c r="E66" s="78"/>
       <c r="F66" s="46">
         <f>SUMIF(E9:E62,"=21%",F9:F62)/100*21</f>
-        <v>3333.9179999999997</v>
+        <v>3244.0379999999996</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2067,7 +2067,7 @@
       <c r="E68" s="80"/>
       <c r="F68" s="47">
         <f>SUM(F65+F66+F67)</f>
-        <v>19209.718000000001</v>
+        <v>18691.838</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="11.7" thickTop="1" x14ac:dyDescent="0.35">
@@ -2154,7 +2154,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A42:B42"/>
@@ -2172,6 +2171,7 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.15748031496062992" top="1.75" bottom="0.74803149606299213" header="0.15748031496062992" footer="0.18"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>

--- a/opdracht03/documentatie/Offerte groep 40.xlsx
+++ b/opdracht03/documentatie/Offerte groep 40.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\2\Vakken\Projecten 2\p2ops-g10\opdracht03\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5649EBB6-4F48-4234-BEBD-8AEF655D202C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A4CDBA-4E09-4A50-8854-7CFA3F9A833E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4287" yWindow="2093" windowWidth="19200" windowHeight="10074" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meerdere pagina's" sheetId="4" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>StarTech Server Rack + Schap - Wand montage - 4U</t>
   </si>
   <si>
-    <t>AutoCAD Licentie - 1 jaar</t>
-  </si>
-  <si>
     <t>Installatie</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>VoIP Telenet FreePhone Business abonnement per gebruiker - 1 jaar</t>
+  </si>
+  <si>
+    <t>Teamleader CRM - 1 jaar</t>
   </si>
 </sst>
 </file>
@@ -760,7 +760,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,7 +776,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="11.35" x14ac:dyDescent="0.35"/>
@@ -1134,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="89"/>
       <c r="F3" s="21" t="s">
@@ -1152,11 +1152,11 @@
         <v>43605</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="91"/>
       <c r="F4" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.35" x14ac:dyDescent="0.5">
@@ -1262,7 +1262,7 @@
     </row>
     <row r="12" spans="1:6" s="63" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="71"/>
       <c r="C12" s="5">
@@ -1338,7 +1338,7 @@
     </row>
     <row r="16" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="5">
@@ -1385,7 +1385,7 @@
     </row>
     <row r="19" spans="1:9" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="30"/>
@@ -1410,10 +1410,10 @@
       </c>
       <c r="B21" s="83"/>
       <c r="C21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>33</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>34</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>4</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="22" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="82"/>
       <c r="C22" s="57">
@@ -1475,7 +1475,7 @@
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="34" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="71"/>
       <c r="C34" s="5">
@@ -1625,7 +1625,7 @@
     </row>
     <row r="36" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="71"/>
       <c r="C36" s="5">
@@ -1663,7 +1663,7 @@
     </row>
     <row r="38" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="71"/>
       <c r="C38" s="5">
@@ -1682,7 +1682,7 @@
     </row>
     <row r="39" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="71"/>
       <c r="C39" s="5">
@@ -1701,7 +1701,7 @@
     </row>
     <row r="40" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="71"/>
       <c r="C40" s="5">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="41" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="5">
@@ -1739,7 +1739,7 @@
     </row>
     <row r="42" spans="1:6" s="42" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="76"/>
       <c r="C42" s="5">
@@ -1758,7 +1758,7 @@
     </row>
     <row r="43" spans="1:6" s="42" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="76"/>
       <c r="C43" s="5">
@@ -1777,7 +1777,7 @@
     </row>
     <row r="44" spans="1:6" s="66" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="76"/>
       <c r="C44" s="5">
@@ -1796,7 +1796,7 @@
     </row>
     <row r="45" spans="1:6" s="66" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="68"/>
       <c r="C45" s="31">
@@ -1828,7 +1828,7 @@
     </row>
     <row r="48" spans="1:6" s="28" customFormat="1" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="73"/>
       <c r="C48" s="30"/>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="B50" s="75"/>
       <c r="C50" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>11</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="52" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="71"/>
       <c r="C52" s="5">
@@ -1902,26 +1902,26 @@
     </row>
     <row r="53" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="70" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B53" s="71"/>
       <c r="C53" s="5">
         <v>3</v>
       </c>
       <c r="D53" s="6">
-        <v>1755</v>
+        <v>347.1</v>
       </c>
       <c r="E53" s="7">
         <v>0.21</v>
       </c>
       <c r="F53" s="8">
         <f t="shared" si="1"/>
-        <v>5265</v>
+        <v>1041.3000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="27" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="71"/>
       <c r="C54" s="5">
@@ -2032,12 +2032,12 @@
     </row>
     <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D65" s="77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E65" s="78"/>
       <c r="F65" s="46">
         <f>SUM(F9:F63)</f>
-        <v>15447.8</v>
+        <v>11224.1</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -2047,7 +2047,7 @@
       <c r="E66" s="78"/>
       <c r="F66" s="46">
         <f>SUMIF(E9:E62,"=21%",F9:F62)/100*21</f>
-        <v>3244.0379999999996</v>
+        <v>2357.0610000000001</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2067,7 +2067,7 @@
       <c r="E68" s="80"/>
       <c r="F68" s="47">
         <f>SUM(F65+F66+F67)</f>
-        <v>18691.838</v>
+        <v>13581.161</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="11.7" thickTop="1" x14ac:dyDescent="0.35">
@@ -2087,7 +2087,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
